--- a/data/params_scenarios.xlsx
+++ b/data/params_scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u2004949_udg_edu/Documents/Quebec/Codi Nuria/AP-SBW-develop_nu/AP-SBW-develop_nu QC/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udlcat-my.sharepoint.com/personal/quim_canelles_udl_cat/Documents/Quebec/SBW-AP/Model/AP-SBW-code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_46BE75E75936BDFFF4FD5A370EDE83E6B73321E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5493A21-5742-4EEF-B8CD-F6E75B79D8CF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_46BE75E75936BDFFF4FD5A370EDE83E6B73321E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB2D604-3C9C-42EE-9770-DF16F4449B7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,10 +455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3787,14 +3783,12 @@
   <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="7" width="5.54296875" customWidth="1"/>
-    <col min="8" max="27" width="5.54296875" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="5.54296875" customWidth="1"/>
+    <col min="2" max="32" width="5.54296875" customWidth="1"/>
     <col min="33" max="33" width="7.453125" customWidth="1"/>
     <col min="34" max="36" width="5.54296875" customWidth="1"/>
   </cols>
@@ -3953,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P2" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" s="3">
         <v>200</v>
@@ -4077,11 +4071,11 @@
       </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="0"/>
@@ -4222,11 +4216,11 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
@@ -4366,11 +4360,11 @@
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
@@ -4507,11 +4501,11 @@
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
@@ -4648,11 +4642,11 @@
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
@@ -4789,11 +4783,11 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
@@ -4930,11 +4924,11 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
@@ -5071,11 +5065,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
@@ -5212,11 +5206,11 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="0"/>
@@ -5353,11 +5347,11 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="4"/>
@@ -5494,11 +5488,11 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="4"/>
@@ -5635,11 +5629,11 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="4"/>
@@ -5776,11 +5770,11 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="4"/>
@@ -5917,11 +5911,11 @@
       </c>
       <c r="O16" s="9">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="4"/>
@@ -6058,11 +6052,11 @@
       </c>
       <c r="O17" s="9">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="4"/>
